--- a/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
+++ b/currentbuild/StructureDefinition-auditevent-carerelation-metadata-extension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.7</t>
+    <t>0.9.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T06:02:16+00:00</t>
+    <t>2024-11-07T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This extension is used to carry attributes from Norwegian Trust Framework (Nasjonalt tillitsrammeverk) which there exists no natural element for.</t>
+    <t>This extensins carries information about a 'user session' defined as access to health information for a patient or group where the access criteria are the same and access occurs from a single logical system within a given time window.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -283,6 +283,9 @@
     <t>Extension.extension</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
@@ -352,7 +355,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t>care-relationship:decision-ref:id</t>
+    <t>care_relationship:decision_ref:id</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
@@ -383,7 +386,7 @@
     <t>Extension.extension:decision-ref-description.value[x]</t>
   </si>
   <si>
-    <t>care-relationship:decision-ref:description</t>
+    <t>care_relationship:decision_ref:description</t>
   </si>
   <si>
     <t>Extension.extension:decision-ref-user-selected</t>
@@ -408,7 +411,7 @@
 </t>
   </si>
   <si>
-    <t>care-relationship:decision-ref:user-selected</t>
+    <t>care_relationship:decision_ref:user_selected</t>
   </si>
   <si>
     <t>Extension.extension:toa</t>
@@ -1129,7 +1132,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>76</v>
@@ -1144,13 +1147,13 @@
         <v>19</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1189,19 +1192,19 @@
         <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>75</v>
@@ -1221,20 +1224,20 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>81</v>
@@ -1249,13 +1252,13 @@
         <v>19</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1306,7 +1309,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>75</v>
@@ -1326,10 +1329,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1429,10 +1432,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1455,13 +1458,13 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1500,19 +1503,19 @@
         <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>75</v>
@@ -1532,10 +1535,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1558,16 +1561,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1575,7 +1578,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>19</v>
@@ -1617,7 +1620,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -1632,15 +1635,15 @@
         <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1666,10 +1669,10 @@
         <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1720,7 +1723,7 @@
         <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>75</v>
@@ -1732,28 +1735,28 @@
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>81</v>
@@ -1768,13 +1771,13 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1825,7 +1828,7 @@
         <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>75</v>
@@ -1845,10 +1848,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1948,10 +1951,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1974,13 +1977,13 @@
         <v>19</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2019,19 +2022,19 @@
         <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>75</v>
@@ -2051,10 +2054,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2077,16 +2080,16 @@
         <v>19</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2094,7 +2097,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>19</v>
@@ -2136,7 +2139,7 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -2151,15 +2154,15 @@
         <v>19</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2185,10 +2188,10 @@
         <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2239,7 +2242,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>75</v>
@@ -2251,28 +2254,28 @@
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -2287,13 +2290,13 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2344,7 +2347,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>75</v>
@@ -2364,10 +2367,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2467,10 +2470,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2493,13 +2496,13 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2538,19 +2541,19 @@
         <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>75</v>
@@ -2570,10 +2573,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2596,16 +2599,16 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2613,7 +2616,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>19</v>
@@ -2655,7 +2658,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -2670,15 +2673,15 @@
         <v>19</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2701,13 +2704,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2758,7 +2761,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>75</v>
@@ -2770,21 +2773,21 @@
         <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>19</v>
@@ -2806,13 +2809,13 @@
         <v>19</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2863,7 +2866,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>75</v>
@@ -2883,10 +2886,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2986,10 +2989,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3012,13 +3015,13 @@
         <v>19</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3057,19 +3060,19 @@
         <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>75</v>
@@ -3089,10 +3092,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3115,16 +3118,16 @@
         <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3132,7 +3135,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>19</v>
@@ -3174,7 +3177,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -3189,15 +3192,15 @@
         <v>19</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3220,13 +3223,13 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3277,7 +3280,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>75</v>
@@ -3289,18 +3292,18 @@
         <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3323,16 +3326,16 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3382,7 +3385,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -3397,15 +3400,15 @@
         <v>19</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3428,13 +3431,13 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3485,7 +3488,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>75</v>
@@ -3497,10 +3500,10 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
